--- a/stock_predictor_ai/data/cleaned/HWM.xlsx
+++ b/stock_predictor_ai/data/cleaned/HWM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2170"/>
+  <dimension ref="A1:F2171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43849,6 +43849,26 @@
         <v>202162</v>
       </c>
     </row>
+    <row r="2171">
+      <c r="A2171" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>180.8699951171875</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>181.4069061279297</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>179.3350067138672</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>181.3999938964844</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>147517</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HWM.xlsx
+++ b/stock_predictor_ai/data/cleaned/HWM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2171"/>
+  <dimension ref="A1:F2172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43869,6 +43869,26 @@
         <v>147517</v>
       </c>
     </row>
+    <row r="2172">
+      <c r="A2172" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>184.6799926757812</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>185.1199951171875</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>182.1499938964844</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>1918600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HWM.xlsx
+++ b/stock_predictor_ai/data/cleaned/HWM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2172"/>
+  <dimension ref="A1:F2173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43889,6 +43889,26 @@
         <v>1918600</v>
       </c>
     </row>
+    <row r="2173">
+      <c r="A2173" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>188.8150024414062</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>190.5070037841797</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>187.2949981689453</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>374720</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HWM.xlsx
+++ b/stock_predictor_ai/data/cleaned/HWM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2173"/>
+  <dimension ref="A1:F2174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43909,6 +43909,26 @@
         <v>374720</v>
       </c>
     </row>
+    <row r="2174">
+      <c r="A2174" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>173.0800018310547</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>173.5899963378906</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>170.8099975585938</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>172.3099975585938</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>850394</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HWM.xlsx
+++ b/stock_predictor_ai/data/cleaned/HWM.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2174"/>
+  <dimension ref="A1:F2169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43829,106 +43831,6 @@
         <v>1965400</v>
       </c>
     </row>
-    <row r="2170">
-      <c r="A2170" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B2170" t="n">
-        <v>178.1450042724609</v>
-      </c>
-      <c r="C2170" t="n">
-        <v>178.3300018310547</v>
-      </c>
-      <c r="D2170" t="n">
-        <v>176.0700073242188</v>
-      </c>
-      <c r="E2170" t="n">
-        <v>176.6900024414062</v>
-      </c>
-      <c r="F2170" t="n">
-        <v>202162</v>
-      </c>
-    </row>
-    <row r="2171">
-      <c r="A2171" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B2171" t="n">
-        <v>180.8699951171875</v>
-      </c>
-      <c r="C2171" t="n">
-        <v>181.4069061279297</v>
-      </c>
-      <c r="D2171" t="n">
-        <v>179.3350067138672</v>
-      </c>
-      <c r="E2171" t="n">
-        <v>181.3999938964844</v>
-      </c>
-      <c r="F2171" t="n">
-        <v>147517</v>
-      </c>
-    </row>
-    <row r="2172">
-      <c r="A2172" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B2172" t="n">
-        <v>184.6799926757812</v>
-      </c>
-      <c r="C2172" t="n">
-        <v>185.1199951171875</v>
-      </c>
-      <c r="D2172" t="n">
-        <v>182.1499938964844</v>
-      </c>
-      <c r="E2172" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="F2172" t="n">
-        <v>1918600</v>
-      </c>
-    </row>
-    <row r="2173">
-      <c r="A2173" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B2173" t="n">
-        <v>188.8150024414062</v>
-      </c>
-      <c r="C2173" t="n">
-        <v>190.5070037841797</v>
-      </c>
-      <c r="D2173" t="n">
-        <v>187.2949981689453</v>
-      </c>
-      <c r="E2173" t="n">
-        <v>190.5</v>
-      </c>
-      <c r="F2173" t="n">
-        <v>374720</v>
-      </c>
-    </row>
-    <row r="2174">
-      <c r="A2174" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B2174" t="n">
-        <v>173.0800018310547</v>
-      </c>
-      <c r="C2174" t="n">
-        <v>173.5899963378906</v>
-      </c>
-      <c r="D2174" t="n">
-        <v>170.8099975585938</v>
-      </c>
-      <c r="E2174" t="n">
-        <v>172.3099975585938</v>
-      </c>
-      <c r="F2174" t="n">
-        <v>850394</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
